--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N2">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P2">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q2">
-        <v>19.07078041031756</v>
+        <v>29.23732288942645</v>
       </c>
       <c r="R2">
-        <v>171.637023692858</v>
+        <v>263.135906004838</v>
       </c>
       <c r="S2">
-        <v>0.01273732113270025</v>
+        <v>0.009973553646515776</v>
       </c>
       <c r="T2">
-        <v>0.01273732113270025</v>
+        <v>0.009973553646515775</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N3">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P3">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q3">
-        <v>12.76849937650178</v>
+        <v>27.91870223063178</v>
       </c>
       <c r="R3">
-        <v>114.916494388516</v>
+        <v>251.268320075686</v>
       </c>
       <c r="S3">
-        <v>0.008528045179168312</v>
+        <v>0.009523740442699885</v>
       </c>
       <c r="T3">
-        <v>0.008528045179168312</v>
+        <v>0.009523740442699885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,43 +664,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H4">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I4">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J4">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N4">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O4">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P4">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q4">
-        <v>790.5125036940711</v>
+        <v>1381.977737672916</v>
       </c>
       <c r="R4">
-        <v>7114.612533246641</v>
+        <v>12437.79963905624</v>
       </c>
       <c r="S4">
-        <v>0.5279811000035849</v>
+        <v>0.4714258264034145</v>
       </c>
       <c r="T4">
-        <v>0.5279811000035848</v>
+        <v>0.4714258264034145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,13 +726,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H5">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I5">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J5">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N5">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O5">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P5">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q5">
-        <v>529.2734850574756</v>
+        <v>1319.649719414142</v>
       </c>
       <c r="R5">
-        <v>4763.461365517281</v>
+        <v>11876.84747472728</v>
       </c>
       <c r="S5">
-        <v>0.353500286886699</v>
+        <v>0.450164241129829</v>
       </c>
       <c r="T5">
-        <v>0.353500286886699</v>
+        <v>0.4501642411298291</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H6">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I6">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J6">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N6">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O6">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P6">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q6">
-        <v>39.96937912020156</v>
+        <v>76.606500175197</v>
       </c>
       <c r="R6">
-        <v>359.724412081814</v>
+        <v>689.4585015767731</v>
       </c>
       <c r="S6">
-        <v>0.02669543701804778</v>
+        <v>0.02613231868248303</v>
       </c>
       <c r="T6">
-        <v>0.02669543701804777</v>
+        <v>0.02613231868248303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H7">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I7">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J7">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N7">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O7">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P7">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q7">
-        <v>26.76078175066978</v>
+        <v>73.15150143570899</v>
       </c>
       <c r="R7">
-        <v>240.847035756028</v>
+        <v>658.363512921381</v>
       </c>
       <c r="S7">
-        <v>0.01787345161480519</v>
+        <v>0.02495373556092816</v>
       </c>
       <c r="T7">
-        <v>0.01787345161480519</v>
+        <v>0.02495373556092816</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H8">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I8">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J8">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4679556666666667</v>
+        <v>0.8180823333333334</v>
       </c>
       <c r="N8">
-        <v>1.403867</v>
+        <v>2.454247</v>
       </c>
       <c r="O8">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="P8">
-        <v>0.5989702197413518</v>
+        <v>0.5115352725808422</v>
       </c>
       <c r="Q8">
-        <v>47.24733215916321</v>
+        <v>11.73641667421856</v>
       </c>
       <c r="R8">
-        <v>425.2259894324689</v>
+        <v>105.627750067967</v>
       </c>
       <c r="S8">
-        <v>0.03155636158701892</v>
+        <v>0.004003573848428955</v>
       </c>
       <c r="T8">
-        <v>0.03155636158701892</v>
+        <v>0.004003573848428955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H9">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I9">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J9">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3133113333333333</v>
+        <v>0.7811863333333333</v>
       </c>
       <c r="N9">
-        <v>0.939934</v>
+        <v>2.343559</v>
       </c>
       <c r="O9">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191578</v>
       </c>
       <c r="P9">
-        <v>0.4010297802586483</v>
+        <v>0.4884647274191579</v>
       </c>
       <c r="Q9">
-        <v>31.63360482559311</v>
+        <v>11.20709729893322</v>
       </c>
       <c r="R9">
-        <v>284.702443430338</v>
+        <v>100.863875690399</v>
       </c>
       <c r="S9">
-        <v>0.02112799657797572</v>
+        <v>0.003823010285700793</v>
       </c>
       <c r="T9">
-        <v>0.02112799657797572</v>
+        <v>0.003823010285700793</v>
       </c>
     </row>
   </sheetData>
